--- a/biology/Biologie cellulaire et moléculaire/TACI/TACI.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/TACI/TACI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le TACI (pour « transmembrane activator and CAML interactor » ou « Tumor necrosis factor receptor superfamily member 13B », ou TNFRSF13B, est un récepteur transmembranaire intervenant dans le système immunitaire.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un récepteur cellulaire de TNF, avec une affinité pour le CAML (« calcium-modulator and cyclophilin ligand »)[5].
-Il intervient dans la différenciation des lymphocytes B[6] et empêcherait la formation d'une autoimmunité[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un récepteur cellulaire de TNF, avec une affinité pour le CAML (« calcium-modulator and cyclophilin ligand »).
+Il intervient dans la différenciation des lymphocytes B et empêcherait la formation d'une autoimmunité.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des mutations sur le gène TACI sont associées avec l'hypogammaglobulinémie commune d'expression variable[8] et le déficit en immunoglobuline A[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des mutations sur le gène TACI sont associées avec l'hypogammaglobulinémie commune d'expression variable et le déficit en immunoglobuline A.
 </t>
         </is>
       </c>
